--- a/NDLM_Template.xlsx
+++ b/NDLM_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcsol\Documents\Python\ENARSI\vEdge_To_cEdge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.wellpoint.com/personal/al93633_ad_wellpoint_com/Documents/Documents/Python Projects/vEdge_To_cEdge_Tier_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FC328D-3684-47DB-85D0-D6B083875D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1FB2D60F-911D-4AE1-8C0C-99AB15A1ACF8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1FB2D60F-911D-4AE1-8C0C-99AB15A1ACF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -622,9 +622,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -662,7 +662,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -768,7 +768,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -910,7 +910,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -920,37 +920,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A4DBE5-F891-45D4-BF74-52D9C3853A2F}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="66" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="45.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="81.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="50.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="65.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="101.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="151.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="208.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="45.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="81.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="50.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="65.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="101.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="151.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="208.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="87" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="53.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="56.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="70.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="72.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="53.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="56.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="70.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="72.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="156" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="23" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
@@ -1068,7 +1068,7 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
